--- a/Segundo Año/Sistemas Operativos/Guías_de_Ejercicios/Planificación/Ejercicio 6b.xlsx
+++ b/Segundo Año/Sistemas Operativos/Guías_de_Ejercicios/Planificación/Ejercicio 6b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Simbiosis\UTN\Segundo Año\Sistemas Operativos\Guías_de_Ejercicios\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03340B4-59FA-4BDC-A487-54FE353B56DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED08754-9B56-437A-9495-CADB2D00DB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 6b" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -137,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +168,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -320,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,14 +355,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -359,31 +390,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,7 +627,7 @@
   <dimension ref="A2:AH17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -613,167 +635,167 @@
     <col min="1" max="34" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="I2" s="18" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="20"/>
+      <c r="I2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="16" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="16" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="16" t="s">
+      <c r="R2" s="26"/>
+      <c r="S2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="18" t="s">
+      <c r="T2" s="24"/>
+      <c r="U2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="19"/>
+      <c r="V2" s="26"/>
       <c r="Z2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="15"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="20"/>
+    </row>
+    <row r="3" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="21">
         <v>3</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="I3" s="9" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="20"/>
+      <c r="I3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11">
+      <c r="J3" s="16"/>
+      <c r="K3" s="17">
         <v>0</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="9">
+      <c r="L3" s="18"/>
+      <c r="M3" s="15">
         <v>2</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11">
+      <c r="N3" s="16"/>
+      <c r="O3" s="17">
         <v>1</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="9">
+      <c r="P3" s="18"/>
+      <c r="Q3" s="15">
         <v>6</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="11" t="s">
+      <c r="R3" s="16"/>
+      <c r="S3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="9" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="10"/>
+      <c r="V3" s="16"/>
       <c r="Z3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AA3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="15"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="I4" s="9" t="s">
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="20"/>
+    </row>
+    <row r="4" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11">
+      <c r="J4" s="16"/>
+      <c r="K4" s="17">
         <v>1</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="9">
+      <c r="L4" s="18"/>
+      <c r="M4" s="15">
         <v>2</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11">
+      <c r="N4" s="16"/>
+      <c r="O4" s="17">
         <v>3</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="9">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="15">
         <v>4</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="11" t="s">
+      <c r="R4" s="16"/>
+      <c r="S4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="9" t="s">
+      <c r="T4" s="18"/>
+      <c r="U4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="10"/>
+      <c r="V4" s="16"/>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="13" t="s">
+      <c r="AA4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="15"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="I5" s="9" t="s">
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="20"/>
+    </row>
+    <row r="5" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11">
+      <c r="J5" s="16"/>
+      <c r="K5" s="17">
         <v>3</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="9">
+      <c r="L5" s="18"/>
+      <c r="M5" s="15">
         <v>1</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11">
+      <c r="N5" s="16"/>
+      <c r="O5" s="17">
         <v>2</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="9">
+      <c r="P5" s="18"/>
+      <c r="Q5" s="15">
         <v>1</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11">
+      <c r="R5" s="16"/>
+      <c r="S5" s="17">
         <v>1</v>
       </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="9">
+      <c r="T5" s="18"/>
+      <c r="U5" s="15">
         <v>2</v>
       </c>
-      <c r="V5" s="10"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="V5" s="16"/>
+    </row>
+    <row r="6" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -781,34 +803,34 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11">
+      <c r="J6" s="16"/>
+      <c r="K6" s="17">
         <v>9</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="9">
+      <c r="L6" s="18"/>
+      <c r="M6" s="15">
         <v>5</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11" t="s">
+      <c r="N6" s="16"/>
+      <c r="O6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="9" t="s">
+      <c r="P6" s="18"/>
+      <c r="Q6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11" t="s">
+      <c r="R6" s="16"/>
+      <c r="S6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="9" t="s">
+      <c r="T6" s="18"/>
+      <c r="U6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="10"/>
+      <c r="V6" s="16"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -818,317 +840,266 @@
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="9"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="11"/>
+      <c r="K10" s="32"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="9"/>
+      <c r="X10" s="4"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+    </row>
+    <row r="11" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="9"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="12"/>
+    </row>
+    <row r="13" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+    </row>
+    <row r="14" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -1224,13 +1195,13 @@
       <c r="AE16" s="7">
         <v>30</v>
       </c>
-      <c r="AF16" s="22">
+      <c r="AF16" s="8">
         <v>31</v>
       </c>
-      <c r="AG16" s="22">
+      <c r="AG16" s="8">
         <v>32</v>
       </c>
-      <c r="AH16" s="22">
+      <c r="AH16" s="8">
         <v>33</v>
       </c>
     </row>
@@ -1267,17 +1238,17 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="B2:C2"/>
@@ -1287,6 +1258,11 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="S2:T2"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
@@ -1298,17 +1274,12 @@
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
